--- a/data/trans_orig/P2A_ner_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4825A13A-FC6B-4475-84AA-9BD4525FD74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD898C8-D686-4E60-93FE-172B90069923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3A4754C-FC89-4F5A-9931-37614C1EA8C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97F29723-4358-4A79-B21D-A865C99037D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="410">
   <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -86,19 +86,19 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,19 +116,19 @@
     <t>95,32%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -137,1054 +137,1057 @@
     <t>2,47%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>8,8%</t>
   </si>
   <si>
     <t>6,98%</t>
@@ -1193,31 +1196,28 @@
     <t>5,98%</t>
   </si>
   <si>
-    <t>8,26%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>91,2%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>91,74%</t>
+    <t>91,84%</t>
   </si>
   <si>
     <t>94,02%</t>
@@ -1226,49 +1226,49 @@
     <t>6,14%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>7,13%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>6,97%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>92,87%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>93,03%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E812D9ED-DA51-4BE9-B423-A5BE6C637EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ECCFF2-B060-4239-BBF4-86017868C391}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2132,10 +2132,10 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -2144,13 +2144,13 @@
         <v>72250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2165,13 @@
         <v>933319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>868</v>
@@ -2180,13 +2180,13 @@
         <v>924624</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1738</v>
@@ -2195,13 +2195,13 @@
         <v>1857943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2269,13 +2269,13 @@
         <v>24228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2284,13 +2284,13 @@
         <v>32658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2299,13 +2299,13 @@
         <v>56886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2320,13 @@
         <v>654281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>662</v>
@@ -2335,13 +2335,13 @@
         <v>651183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1278</v>
@@ -2350,13 +2350,13 @@
         <v>1305464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2424,13 +2424,13 @@
         <v>22812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -2439,13 +2439,13 @@
         <v>44072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2454,13 +2454,13 @@
         <v>66884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2475,13 @@
         <v>919410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
@@ -2490,13 +2490,13 @@
         <v>994540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1925</v>
@@ -2505,13 +2505,13 @@
         <v>1913950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2579,13 @@
         <v>89804</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -2594,13 +2594,13 @@
         <v>153804</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>239</v>
@@ -2609,13 +2609,13 @@
         <v>243608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,16 +2627,16 @@
         <v>3124</v>
       </c>
       <c r="D20" s="7">
-        <v>3186739</v>
+        <v>3186740</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3148</v>
@@ -2645,28 +2645,28 @@
         <v>3225394</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>6272</v>
       </c>
       <c r="N20" s="7">
-        <v>6412133</v>
+        <v>6412132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2708,7 +2708,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCED5F9-9A38-4E54-B050-991CF900F8BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67DF1FD-D209-4C2C-98FA-B9B6A8D8C5DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2760,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2867,13 +2867,13 @@
         <v>6907</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2882,13 +2882,13 @@
         <v>5167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2897,13 +2897,13 @@
         <v>12073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2918,13 @@
         <v>108858</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2933,13 +2933,13 @@
         <v>106738</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -2948,13 +2948,13 @@
         <v>215597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3022,13 @@
         <v>19989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3037,13 +3037,13 @@
         <v>28846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3052,13 +3052,13 @@
         <v>48834</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>567715</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>523</v>
@@ -3088,13 +3088,13 @@
         <v>556299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -3103,13 +3103,13 @@
         <v>1124015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>22797</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -3192,13 +3192,13 @@
         <v>54338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3207,13 +3207,13 @@
         <v>77135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>995150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>890</v>
@@ -3243,13 +3243,13 @@
         <v>977846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1804</v>
@@ -3258,13 +3258,13 @@
         <v>1972996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3332,13 +3332,13 @@
         <v>17025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3350,10 +3350,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3362,13 +3362,13 @@
         <v>53383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>740598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -3401,10 +3401,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1344</v>
@@ -3413,13 +3413,13 @@
         <v>1481414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3487,13 +3487,13 @@
         <v>38500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3502,13 +3502,13 @@
         <v>50855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -3517,13 +3517,13 @@
         <v>89356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>909239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>954</v>
@@ -3553,13 +3553,13 @@
         <v>1001046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1829</v>
@@ -3568,13 +3568,13 @@
         <v>1910284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3642,13 @@
         <v>105218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -3657,13 +3657,13 @@
         <v>175563</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -3672,13 +3672,13 @@
         <v>280781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3693,13 @@
         <v>3321561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>3131</v>
@@ -3708,13 +3708,13 @@
         <v>3382746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>6241</v>
@@ -3723,13 +3723,13 @@
         <v>6704307</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE5C20F-451D-416F-A66C-AA29E3EE19F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102B39FA-90BB-469F-A886-6A528C5818B9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3823,7 +3823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3930,13 +3930,13 @@
         <v>7276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3945,13 +3945,13 @@
         <v>16997</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3960,13 +3960,13 @@
         <v>24273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3981,13 @@
         <v>109270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -3996,13 +3996,13 @@
         <v>96363</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -4011,13 +4011,13 @@
         <v>205633</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>19357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4100,13 +4100,13 @@
         <v>63308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
@@ -4115,13 +4115,13 @@
         <v>82665</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>538897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>491</v>
@@ -4151,13 +4151,13 @@
         <v>496171</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1010</v>
@@ -4166,13 +4166,13 @@
         <v>1035068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4240,13 @@
         <v>42135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4255,13 +4255,13 @@
         <v>96554</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -4270,13 +4270,13 @@
         <v>138689</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4291,13 @@
         <v>980296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
@@ -4306,13 +4306,13 @@
         <v>946359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1798</v>
@@ -4321,13 +4321,13 @@
         <v>1926655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4395,13 +4395,13 @@
         <v>33015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -4410,13 +4410,13 @@
         <v>81510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -4425,13 +4425,13 @@
         <v>114525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>726537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>662</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4550,10 +4550,10 @@
         <v>51391</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>284</v>
@@ -4601,13 +4601,13 @@
         <v>886176</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>843</v>
@@ -4738,10 +4738,10 @@
         <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4756,13 @@
         <v>3241177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>2982</v>
@@ -4771,13 +4771,13 @@
         <v>3153742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>6064</v>
@@ -4786,13 +4786,13 @@
         <v>6394919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,7 +4848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D51846-8258-4C10-BFA9-3899519CBC1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6461FDB7-4AC9-4F21-ACB5-2BE3416B00B4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4993,13 +4993,13 @@
         <v>3548</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5008,13 +5008,13 @@
         <v>8455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5023,13 +5023,13 @@
         <v>12003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5044,13 @@
         <v>98434</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -5059,13 +5059,13 @@
         <v>122278</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>341</v>
@@ -5074,13 +5074,13 @@
         <v>220712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5148,13 @@
         <v>41519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -5163,13 +5163,13 @@
         <v>38323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -5178,13 +5178,13 @@
         <v>79842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5199,13 @@
         <v>508304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>943</v>
@@ -5214,13 +5214,13 @@
         <v>581644</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>1515</v>
@@ -5229,13 +5229,13 @@
         <v>1089948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5303,13 @@
         <v>54210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -5318,13 +5318,13 @@
         <v>80333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
@@ -5333,13 +5333,13 @@
         <v>134544</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5354,13 @@
         <v>985038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>1399</v>
@@ -5369,13 +5369,13 @@
         <v>979746</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>2310</v>
@@ -5384,13 +5384,13 @@
         <v>1964783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5458,13 +5458,13 @@
         <v>43478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5473,13 +5473,13 @@
         <v>167153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -5488,13 +5488,13 @@
         <v>210631</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5509,13 @@
         <v>685294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>972</v>
@@ -5524,13 +5524,13 @@
         <v>707218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>1608</v>
@@ -5539,13 +5539,13 @@
         <v>1392511</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,7 +5601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5613,13 +5613,13 @@
         <v>65112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -5628,13 +5628,13 @@
         <v>82608</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5643,13 +5643,13 @@
         <v>147720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5664,13 @@
         <v>900291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>1442</v>
@@ -5679,13 +5679,13 @@
         <v>1067824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>2381</v>
@@ -5771,10 +5771,10 @@
         <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>383</v>
@@ -5783,13 +5783,13 @@
         <v>376872</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>588</v>
@@ -5825,7 +5825,7 @@
         <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>4984</v>
@@ -5834,10 +5834,10 @@
         <v>3458709</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>406</v>
@@ -5846,7 +5846,7 @@
         <v>8155</v>
       </c>
       <c r="N20" s="7">
-        <v>6636069</v>
+        <v>6636070</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>407</v>
@@ -5897,7 +5897,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_ner_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD898C8-D686-4E60-93FE-172B90069923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC5E688-E6B4-4E87-9C9C-F48DE0DACA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97F29723-4358-4A79-B21D-A865C99037D8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FBCBAECE-50A9-49C5-B21C-855E6E7E6921}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="336">
   <si>
     <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1207 +68,985 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1458,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ECCFF2-B060-4239-BBF4-86017868C391}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D47FA0-7ADD-4578-8961-487338454C59}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1798,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>14283</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1813,10 +1591,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>5278</v>
+        <v>33305</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1828,10 +1606,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>5278</v>
+        <v>47588</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1849,10 +1627,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>669</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>679729</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1864,10 +1642,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>122</v>
+        <v>662</v>
       </c>
       <c r="I5" s="7">
-        <v>107477</v>
+        <v>655046</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1879,10 +1657,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1331</v>
       </c>
       <c r="N5" s="7">
-        <v>222835</v>
+        <v>1334775</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1900,102 +1678,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>14283</v>
+        <v>29595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>28027</v>
+        <v>44920</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>42310</v>
+        <v>74515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +1782,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>564</v>
+        <v>869</v>
       </c>
       <c r="D8" s="7">
-        <v>564371</v>
+        <v>932205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>540</v>
+        <v>867</v>
       </c>
       <c r="I8" s="7">
-        <v>547569</v>
+        <v>923473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1104</v>
+        <v>1736</v>
       </c>
       <c r="N8" s="7">
-        <v>1111940</v>
+        <v>1855678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,102 +1833,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>28481</v>
+        <v>24228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>43769</v>
+        <v>32658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>72250</v>
+        <v>56886</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,49 +1937,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>870</v>
+        <v>616</v>
       </c>
       <c r="D11" s="7">
-        <v>933319</v>
+        <v>654281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>868</v>
+        <v>662</v>
       </c>
       <c r="I11" s="7">
-        <v>924624</v>
+        <v>651183</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1738</v>
+        <v>1278</v>
       </c>
       <c r="N11" s="7">
-        <v>1857943</v>
+        <v>1305464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,54 +1988,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2266,22 +2044,22 @@
         <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>24228</v>
+        <v>22812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>32658</v>
+        <v>44072</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2293,16 +2071,16 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>56886</v>
+        <v>66884</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>76</v>
@@ -2314,49 +2092,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>616</v>
+        <v>969</v>
       </c>
       <c r="D14" s="7">
-        <v>654281</v>
+        <v>919410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>956</v>
+      </c>
+      <c r="I14" s="7">
+        <v>994540</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>662</v>
-      </c>
-      <c r="I14" s="7">
-        <v>651183</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1925</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1913950</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="7">
-        <v>1278</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1305464</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,102 +2143,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>22812</v>
+        <v>90919</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>150</v>
+      </c>
+      <c r="I16" s="7">
+        <v>154955</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44072</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>241</v>
+      </c>
+      <c r="N16" s="7">
+        <v>245873</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="7">
-        <v>66</v>
-      </c>
-      <c r="N16" s="7">
-        <v>66884</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,49 +2247,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>969</v>
+        <v>3123</v>
       </c>
       <c r="D17" s="7">
-        <v>919410</v>
+        <v>3185624</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3147</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3224242</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>956</v>
-      </c>
-      <c r="I17" s="7">
-        <v>994540</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6270</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6409868</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1925</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1913950</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,217 +2298,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>90</v>
-      </c>
-      <c r="D19" s="7">
-        <v>89804</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7">
-        <v>153804</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>239</v>
-      </c>
-      <c r="N19" s="7">
-        <v>243608</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3124</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3186740</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3148</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3225394</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6272</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6412132</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2743,8 +2365,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67DF1FD-D209-4C2C-98FA-B9B6A8D8C5DB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527090E7-B3F9-4FB7-9FF0-285376786DB4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2760,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2861,49 +2483,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>6907</v>
+        <v>26895</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>5167</v>
+        <v>34012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>12073</v>
+        <v>60908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2534,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>647</v>
+      </c>
+      <c r="D5" s="7">
+        <v>676574</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7">
+        <v>617</v>
+      </c>
+      <c r="I5" s="7">
+        <v>663038</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="7">
-        <v>108858</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="7">
-        <v>94</v>
-      </c>
-      <c r="I5" s="7">
-        <v>106738</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>209</v>
+        <v>1264</v>
       </c>
       <c r="N5" s="7">
-        <v>215597</v>
+        <v>1339611</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,102 +2585,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>19989</v>
+        <v>22797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>28846</v>
+        <v>54338</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>48834</v>
+        <v>77135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +2689,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>532</v>
+        <v>914</v>
       </c>
       <c r="D8" s="7">
-        <v>567715</v>
+        <v>995150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>523</v>
+        <v>890</v>
       </c>
       <c r="I8" s="7">
-        <v>556299</v>
+        <v>977846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
-        <v>1055</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1124015</v>
+        <v>1972996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,102 +2740,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>22797</v>
+        <v>17025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36357</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="7">
         <v>50</v>
       </c>
-      <c r="I10" s="7">
-        <v>54338</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M10" s="7">
-        <v>72</v>
-      </c>
       <c r="N10" s="7">
-        <v>77135</v>
+        <v>53383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,49 +2844,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>914</v>
+        <v>674</v>
       </c>
       <c r="D11" s="7">
-        <v>995150</v>
+        <v>740598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>890</v>
+        <v>670</v>
       </c>
       <c r="I11" s="7">
-        <v>977846</v>
+        <v>740817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>1804</v>
+        <v>1344</v>
       </c>
       <c r="N11" s="7">
-        <v>1972996</v>
+        <v>1481414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,102 +2895,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>17025</v>
+        <v>38500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>36357</v>
+        <v>50855</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>53383</v>
+        <v>89356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +2999,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>674</v>
+        <v>875</v>
       </c>
       <c r="D14" s="7">
-        <v>740598</v>
+        <v>909239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>670</v>
+        <v>954</v>
       </c>
       <c r="I14" s="7">
-        <v>740817</v>
+        <v>1001046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1344</v>
+        <v>1829</v>
       </c>
       <c r="N14" s="7">
-        <v>1481414</v>
+        <v>1910284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,102 +3050,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>38500</v>
+        <v>105218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="I16" s="7">
-        <v>50855</v>
+        <v>175563</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>89356</v>
+        <v>280781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,49 +3154,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>875</v>
+        <v>3110</v>
       </c>
       <c r="D17" s="7">
-        <v>909239</v>
+        <v>3321561</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>954</v>
+        <v>3131</v>
       </c>
       <c r="I17" s="7">
-        <v>1001046</v>
+        <v>3382746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
-        <v>1829</v>
+        <v>6241</v>
       </c>
       <c r="N17" s="7">
-        <v>1910284</v>
+        <v>6704307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,217 +3205,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>99</v>
-      </c>
-      <c r="D19" s="7">
-        <v>105218</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>167</v>
-      </c>
-      <c r="I19" s="7">
-        <v>175563</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M19" s="7">
-        <v>266</v>
-      </c>
-      <c r="N19" s="7">
-        <v>280781</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3110</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3321561</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3131</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3382746</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6241</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6704307</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3806,8 +3272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102B39FA-90BB-469F-A886-6A528C5818B9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53258201-10E9-45FC-A01C-36A62CC15765}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3823,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3924,49 +3390,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>7276</v>
+        <v>26633</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
-        <v>16997</v>
+        <v>80305</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="N4" s="7">
-        <v>24273</v>
+        <v>106938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,49 +3441,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>625</v>
       </c>
       <c r="D5" s="7">
-        <v>109270</v>
+        <v>648167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>589</v>
       </c>
       <c r="I5" s="7">
-        <v>96363</v>
+        <v>592534</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
-        <v>204</v>
+        <v>1214</v>
       </c>
       <c r="N5" s="7">
-        <v>205633</v>
+        <v>1240701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,102 +3492,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>19357</v>
+        <v>42135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>63308</v>
+        <v>96554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N7" s="7">
-        <v>82665</v>
+        <v>138689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,49 +3596,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>519</v>
+        <v>910</v>
       </c>
       <c r="D8" s="7">
-        <v>538897</v>
+        <v>980296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>491</v>
+        <v>888</v>
       </c>
       <c r="I8" s="7">
-        <v>496171</v>
+        <v>946359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
-        <v>1010</v>
+        <v>1798</v>
       </c>
       <c r="N8" s="7">
-        <v>1035068</v>
+        <v>1926655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,102 +3647,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>42135</v>
+        <v>33015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>96554</v>
+        <v>81510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>138689</v>
+        <v>114525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +3751,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>910</v>
+        <v>665</v>
       </c>
       <c r="D11" s="7">
-        <v>980296</v>
+        <v>726537</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>888</v>
+        <v>662</v>
       </c>
       <c r="I11" s="7">
-        <v>946359</v>
+        <v>703501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
-        <v>1798</v>
+        <v>1327</v>
       </c>
       <c r="N11" s="7">
-        <v>1926655</v>
+        <v>1430038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,102 +3802,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>33015</v>
+        <v>51391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>81510</v>
+        <v>132430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>114525</v>
+        <v>183821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +3906,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>665</v>
+        <v>882</v>
       </c>
       <c r="D14" s="7">
-        <v>726537</v>
+        <v>886176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
-        <v>662</v>
+        <v>843</v>
       </c>
       <c r="I14" s="7">
-        <v>703501</v>
+        <v>911349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
-        <v>1327</v>
+        <v>1725</v>
       </c>
       <c r="N14" s="7">
-        <v>1430038</v>
+        <v>1797525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,102 +3957,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D16" s="7">
-        <v>51391</v>
+        <v>153173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="I16" s="7">
-        <v>132430</v>
+        <v>390800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
-        <v>166</v>
+        <v>505</v>
       </c>
       <c r="N16" s="7">
-        <v>183821</v>
+        <v>543973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,49 +4061,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>882</v>
+        <v>3082</v>
       </c>
       <c r="D17" s="7">
-        <v>886176</v>
+        <v>3241177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>843</v>
+        <v>2982</v>
       </c>
       <c r="I17" s="7">
-        <v>911349</v>
+        <v>3153742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
-        <v>1725</v>
+        <v>6064</v>
       </c>
       <c r="N17" s="7">
-        <v>1797525</v>
+        <v>6394919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,217 +4112,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>149</v>
-      </c>
-      <c r="D19" s="7">
-        <v>153173</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H19" s="7">
-        <v>356</v>
-      </c>
-      <c r="I19" s="7">
-        <v>390800</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M19" s="7">
-        <v>505</v>
-      </c>
-      <c r="N19" s="7">
-        <v>543973</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3082</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3241177</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2982</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3153742</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6064</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6394919</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4869,8 +4179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6461FDB7-4AC9-4F21-ACB5-2BE3416B00B4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDFAEAD-B716-4CE5-93CB-9582A731F145}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4886,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4987,49 +4297,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>3548</v>
+        <v>25522</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>8455</v>
+        <v>27101</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>12003</v>
+        <v>52624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,49 +4348,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>700</v>
+      </c>
+      <c r="D5" s="7">
+        <v>609919</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1194</v>
+      </c>
+      <c r="I5" s="7">
+        <v>698229</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="7">
-        <v>98434</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" s="7">
-        <v>228</v>
-      </c>
-      <c r="I5" s="7">
-        <v>122278</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="M5" s="7">
-        <v>341</v>
+        <v>1894</v>
       </c>
       <c r="N5" s="7">
-        <v>220712</v>
+        <v>1308148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,102 +4399,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>41519</v>
+        <v>27175</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7">
-        <v>38323</v>
+        <v>49096</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="N7" s="7">
-        <v>79842</v>
+        <v>76271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,49 +4503,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>572</v>
+        <v>935</v>
       </c>
       <c r="D8" s="7">
-        <v>508304</v>
+        <v>1165689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
-        <v>943</v>
+        <v>1438</v>
       </c>
       <c r="I8" s="7">
-        <v>581644</v>
+        <v>909555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
-        <v>1515</v>
+        <v>2373</v>
       </c>
       <c r="N8" s="7">
-        <v>1089948</v>
+        <v>2075245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,102 +4554,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>54210</v>
+        <v>23916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>80333</v>
+        <v>240338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>134544</v>
+        <v>264254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,49 +4658,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>911</v>
+        <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>985038</v>
+        <v>680764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
-        <v>1399</v>
+        <v>991</v>
       </c>
       <c r="I11" s="7">
-        <v>979746</v>
+        <v>693028</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
-        <v>2310</v>
+        <v>1642</v>
       </c>
       <c r="N11" s="7">
-        <v>1964783</v>
+        <v>1373792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,102 +4709,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>43478</v>
+        <v>36508</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>310</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>167153</v>
+        <v>47183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>210631</v>
+        <v>83691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,49 +4813,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>636</v>
+        <v>970</v>
       </c>
       <c r="D14" s="7">
-        <v>685294</v>
+        <v>890323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
-        <v>972</v>
+        <v>1478</v>
       </c>
       <c r="I14" s="7">
-        <v>707218</v>
+        <v>1047749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
-        <v>1608</v>
+        <v>2448</v>
       </c>
       <c r="N14" s="7">
-        <v>1392511</v>
+        <v>1938072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,102 +4864,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>65112</v>
+        <v>113122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="I16" s="7">
-        <v>82608</v>
+        <v>363717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>187</v>
+        <v>386</v>
       </c>
       <c r="N16" s="7">
-        <v>147720</v>
+        <v>476840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,49 +4968,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>939</v>
+        <v>3256</v>
       </c>
       <c r="D17" s="7">
-        <v>900291</v>
+        <v>3346695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
-        <v>1442</v>
+        <v>5101</v>
       </c>
       <c r="I17" s="7">
-        <v>1067824</v>
+        <v>3348563</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
-        <v>2381</v>
+        <v>8357</v>
       </c>
       <c r="N17" s="7">
-        <v>1968115</v>
+        <v>6695257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,217 +5019,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>205</v>
-      </c>
-      <c r="D19" s="7">
-        <v>207867</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H19" s="7">
-        <v>383</v>
-      </c>
-      <c r="I19" s="7">
-        <v>376872</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="M19" s="7">
-        <v>588</v>
-      </c>
-      <c r="N19" s="7">
-        <v>584739</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3171</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3177361</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3458709</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8155</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6636070</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
